--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>场景名称</t>
   </si>
@@ -110,6 +111,10 @@
   <si>
     <t>接口测试的项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyqtest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -737,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -750,7 +755,7 @@
     <col min="3" max="3" width="21.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,8 +780,11 @@
       <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -801,7 +809,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -959,4 +967,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
-  <si>
-    <t>场景名称</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>协议</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -114,6 +111,14 @@
   </si>
   <si>
     <t>gyqtest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>webService</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +750,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -757,39 +762,39 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -819,110 +824,110 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>6</v>
       </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -948,10 +953,10 @@
   <sheetData>
     <row r="4" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="6:7" x14ac:dyDescent="0.15">

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -19,79 +19,87 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
+    <t>期望结果</t>
+  </si>
+  <si>
+    <t>下单时间</t>
+  </si>
+  <si>
+    <t>param</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>webService</t>
+  </si>
+  <si>
+    <t>UI测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>webDriver</t>
+  </si>
+  <si>
+    <t>接口测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>接口测试1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是现在</t>
+  </si>
+  <si>
+    <t>UI测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>testng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>testng</t>
+  </si>
+  <si>
+    <t>龙腾虎跃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>协议</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>期望结果</t>
-  </si>
-  <si>
-    <t>下单时间</t>
-  </si>
-  <si>
-    <t>param</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>des</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>webService</t>
-  </si>
-  <si>
-    <t>UI测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>webDriver</t>
-  </si>
-  <si>
-    <t>接口测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>接口测试1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>就是现在</t>
-  </si>
-  <si>
-    <t>UI测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>商品</t>
-  </si>
-  <si>
-    <t>testng</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败</t>
+    <t>场景名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -99,27 +107,20 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>testng</t>
-  </si>
-  <si>
-    <t>龙腾虎跃</t>
+    <t>gyqtest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>webService</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>接口测试的项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyqtest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>webService</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -750,7 +751,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -762,39 +763,39 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -824,110 +825,110 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -953,10 +954,10 @@
   <sheetData>
     <row r="4" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="6:7" x14ac:dyDescent="0.15">
